--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject4.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject4.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0</v>
+        <v>0.62183673384202121</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.80909753400721818</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -308,7 +308,7 @@
         <v>0</v>
       </c>
       <c r="BI1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.64207660853420734</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.56169584968390851</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.76329235263777306</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.67409771054186085</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.93294352633416699</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -370,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="0">
-        <v>1</v>
+        <v>0.75067520370536889</v>
       </c>
       <c r="N2" s="0">
         <v>0</v>
@@ -379,7 +379,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="0">
-        <v>0</v>
+        <v>0.51231178965893864</v>
       </c>
       <c r="Q2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.8841818121120798</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.95739534546396388</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.66315952976152437</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.67245714461763462</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.82931752653965507</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.94493407009390951</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.85863121310145607</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.97985703602802698</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="0">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="AN4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="0">
         <v>0</v>
@@ -958,16 +958,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.84929483246677251</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.78756538399080944</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0</v>
+        <v>0.89323393204577939</v>
       </c>
       <c r="G5" s="0">
         <v>0</v>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="0">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="0">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="0">
-        <v>0</v>
+        <v>0.6319497866327386</v>
       </c>
       <c r="AA5" s="0">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="AY5" s="0">
-        <v>0</v>
+        <v>0.84336088586581082</v>
       </c>
       <c r="AZ5" s="0">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.79723455415511957</v>
       </c>
       <c r="E6" s="0">
-        <v>0</v>
+        <v>0.52137276522719134</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.7099560414209658</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="0">
-        <v>0</v>
+        <v>0.58650834745781211</v>
       </c>
       <c r="AY6" s="0">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BO6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="0">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.5445614476903784</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.7105998565813133</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.7768515609129365</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.64154393302573443</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.54506060708143111</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.60327085617806131</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="0">
-        <v>0</v>
+        <v>0.64459168828583624</v>
       </c>
       <c r="Z8" s="0">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="BD8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="0">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="BO8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.95868352517013478</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.80773496365022401</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.60150796147718333</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.9765218950849881</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="BN9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.64155835827222707</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.82744893414250364</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.54619084102211946</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.53756482940775441</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="0">
-        <v>0</v>
+        <v>0.72022769199667036</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AC10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.63410178537894835</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.59413475611487521</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0.91217199882082123</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.8256361917940036</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="0">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="0">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="AV11" s="0">
-        <v>0</v>
+        <v>0.7959399804055125</v>
       </c>
       <c r="AW11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.52185732248013039</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0.71985421489377754</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.97895677646059931</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.76189824052786992</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="AC12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="0">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="0">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AW12" s="0">
-        <v>0</v>
+        <v>0.83402002443033374</v>
       </c>
       <c r="AX12" s="0">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="0">
-        <v>1</v>
+        <v>0.82972190159711801</v>
       </c>
       <c r="C13" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.80117262843150772</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.77102456068884107</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.67630230999906815</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.5343620437633666</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.59004007128098501</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="0">
-        <v>0</v>
+        <v>0.58672866590695283</v>
       </c>
       <c r="AF14" s="0">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>0</v>
+        <v>0.94196035399956424</v>
       </c>
       <c r="K15" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.74941848019956558</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.52688428837491652</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.55880043450933936</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="0">
-        <v>0</v>
+        <v>0.52430751820335753</v>
       </c>
       <c r="C16" s="0">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="0">
         <v>0</v>
@@ -3257,16 +3257,16 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.52692096037543934</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BE16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="0">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="0">
         <v>0</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.6722929629587362</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.78822577747232614</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0</v>
+        <v>0.52561362233372111</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.67995909487666206</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="AG17" s="0">
-        <v>0</v>
+        <v>0.77382436349056549</v>
       </c>
       <c r="AH17" s="0">
         <v>0</v>
@@ -3678,16 +3678,16 @@
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0</v>
+        <v>0.81014838557996915</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>0.54859548021468962</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.54462416584512141</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="0">
         <v>0</v>
@@ -3884,16 +3884,16 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.5643024007356241</v>
       </c>
       <c r="R19" s="0">
-        <v>0</v>
+        <v>0.66444500801071138</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.76723183398878469</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -3917,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="AB19" s="0">
-        <v>0</v>
+        <v>0.55052166270164449</v>
       </c>
       <c r="AC19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="0">
         <v>0</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="AG19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="0">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="BJ19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.76052017887150569</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.63382083846338633</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.62068629902883254</v>
       </c>
       <c r="V20" s="0">
-        <v>0</v>
+        <v>0.75723572278312323</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="BB20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="0">
         <v>0</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="0">
         <v>0</v>
@@ -4305,22 +4305,22 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.69316603606553462</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.81170673906379076</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
       </c>
       <c r="Y21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="0">
         <v>0</v>
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>0</v>
+        <v>0.8115579041336809</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0</v>
+        <v>0.69035887779663385</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.75845893087862604</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.88130917683759469</v>
       </c>
       <c r="X22" s="0">
-        <v>0</v>
+        <v>0.67272977474980478</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.65689915657940667</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.70335192468517171</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.90125849614189213</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0</v>
+        <v>0.92313827115283753</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.96321852834708421</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.76269335462332666</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="0">
         <v>0</v>
@@ -5001,13 +5001,13 @@
         <v>0</v>
       </c>
       <c r="AT24" s="0">
-        <v>0</v>
+        <v>0.67579899594635306</v>
       </c>
       <c r="AU24" s="0">
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="0">
-        <v>0</v>
+        <v>0.51400757988214374</v>
       </c>
       <c r="I25" s="0">
         <v>0</v>
@@ -5132,22 +5132,22 @@
         <v>0</v>
       </c>
       <c r="U25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="0">
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.91024000674990335</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.94150737090626735</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.98963834513767224</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>0</v>
+        <v>0.52367992434847754</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.93944504200217427</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5359,16 +5359,16 @@
         <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
       </c>
       <c r="AD26" s="0">
-        <v>0</v>
+        <v>0.85330142913978946</v>
       </c>
       <c r="AE26" s="0">
-        <v>0</v>
+        <v>0.60436991880269542</v>
       </c>
       <c r="AF26" s="0">
         <v>0</v>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -5565,10 +5565,10 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.59187337663813655</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.56835634227137422</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="0">
-        <v>0</v>
+        <v>0.56376741449053669</v>
       </c>
       <c r="T28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.67675048239929203</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.85399051090348366</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.85982966408140926</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="BJ28" s="0">
-        <v>0</v>
+        <v>0.78724132372435851</v>
       </c>
       <c r="BK28" s="0">
         <v>0</v>
@@ -5923,13 +5923,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="0">
         <v>0</v>
       </c>
       <c r="L29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -5974,16 +5974,16 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.52007985392114309</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.52040910691096631</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6025,13 +6025,13 @@
         <v>0</v>
       </c>
       <c r="AR29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="0">
         <v>0</v>
       </c>
       <c r="AT29" s="0">
-        <v>0</v>
+        <v>0.51588690541061299</v>
       </c>
       <c r="AU29" s="0">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="BA29" s="0">
-        <v>0</v>
+        <v>0.73296313692616821</v>
       </c>
       <c r="BB29" s="0">
         <v>0</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="BN29" s="0">
-        <v>0</v>
+        <v>0.95728799342990512</v>
       </c>
       <c r="BO29" s="0">
         <v>0</v>
@@ -6162,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="0">
-        <v>0</v>
+        <v>0.95360801465817691</v>
       </c>
       <c r="V30" s="0">
         <v>0</v>
@@ -6177,16 +6177,16 @@
         <v>0</v>
       </c>
       <c r="Z30" s="0">
-        <v>0</v>
+        <v>0.95685793425911003</v>
       </c>
       <c r="AA30" s="0">
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.97192544231147271</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.97736451615776976</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS30" s="0">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="0">
         <v>0</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="0">
-        <v>0</v>
+        <v>0.66569101259080643</v>
       </c>
       <c r="O31" s="0">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="0">
-        <v>0</v>
+        <v>0.79465621197834846</v>
       </c>
       <c r="AA31" s="0">
         <v>0</v>
@@ -6401,10 +6401,10 @@
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.87813315170379913</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.56332775859318307</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>0</v>
+        <v>0.52733400544310483</v>
       </c>
       <c r="AN31" s="0">
         <v>0</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="BI31" s="0">
-        <v>0</v>
+        <v>0.9394639674340125</v>
       </c>
       <c r="BJ31" s="0">
         <v>0</v>
@@ -6547,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" s="0">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="0">
         <v>0</v>
@@ -6601,16 +6601,16 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.91641174786397506</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.80378203542209137</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.99635278369879487</v>
       </c>
       <c r="AH32" s="0">
         <v>0</v>
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="AS32" s="0">
-        <v>0</v>
+        <v>0.64102489874888224</v>
       </c>
       <c r="AT32" s="0">
         <v>0</v>
@@ -6768,13 +6768,13 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0</v>
+        <v>0.53008841547681584</v>
       </c>
       <c r="R33" s="0">
         <v>0</v>
       </c>
       <c r="S33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.99253572654051325</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.88344840684824177</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.69449811034684661</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7022,16 +7022,16 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.84244304822298177</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.51344126105153787</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.54868064640534175</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.53770539511918158</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.74701299737812121</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.58644140575728831</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="AX35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="0">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="BL35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.9214196053876359</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.59698429456453717</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.73542610467774838</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="AP36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="0">
         <v>0</v>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="AU36" s="0">
-        <v>0</v>
+        <v>0.92091818513214951</v>
       </c>
       <c r="AV36" s="0">
         <v>0</v>
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" s="0">
-        <v>0</v>
+        <v>0.58396967656601118</v>
       </c>
       <c r="BA36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.79220720887830298</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.61543911537584395</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.65685695830646362</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="BD37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE37" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.63538608718716683</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.78929308735216552</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.55159239077818467</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.60326531075446055</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="AE39" s="0">
-        <v>0</v>
+        <v>0.80748478973177762</v>
       </c>
       <c r="AF39" s="0">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.67789193930786062</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.53188222426973342</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8103,7 +8103,7 @@
         <v>0</v>
       </c>
       <c r="AX39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="0">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="BC39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD39" s="0">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="BP39" s="0">
-        <v>0</v>
+        <v>0.92981092841049051</v>
       </c>
     </row>
     <row r="40">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="0">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.53995165868841566</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8282,10 +8282,10 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.70181808532845547</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.87367329491451828</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8485,16 +8485,16 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.99634779028825848</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.50572179704830145</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="BJ41" s="0">
-        <v>0</v>
+        <v>0.81646021996671703</v>
       </c>
       <c r="BK41" s="0">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="AJ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.66238592951156372</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.75731239549397578</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.84219074138508865</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="AU42" s="0">
-        <v>0</v>
+        <v>0.81922134837438665</v>
       </c>
       <c r="AV42" s="0">
         <v>0</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="AY42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ42" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.77543284414453728</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.80378725391597294</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0.83651421373909862</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.74257659640098383</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="BP43" s="0">
-        <v>0</v>
+        <v>0.50695534993780444</v>
       </c>
     </row>
     <row r="44">
@@ -9070,10 +9070,10 @@
         <v>0</v>
       </c>
       <c r="AC44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.75237787414013657</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0.62055122615637637</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0</v>
+        <v>0.81384295396953443</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.90895363320581102</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="AF45" s="0">
-        <v>0</v>
+        <v>0.59551292691306579</v>
       </c>
       <c r="AG45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.67800017890677244</v>
       </c>
       <c r="AR45" s="0">
-        <v>0</v>
+        <v>0.61435607550818028</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.66434362030733274</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.8279457001194428</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9351,13 +9351,13 @@
         <v>0</v>
       </c>
       <c r="BB45" s="0">
-        <v>0</v>
+        <v>0.85384687157262951</v>
       </c>
       <c r="BC45" s="0">
         <v>0</v>
       </c>
       <c r="BD45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE45" s="0">
         <v>0</v>
@@ -9467,7 +9467,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="0">
-        <v>0</v>
+        <v>0.8339947394556354</v>
       </c>
       <c r="Y46" s="0">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="0">
-        <v>0</v>
+        <v>0.50581042427433254</v>
       </c>
       <c r="AD46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.64257933687638735</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.97493104806614383</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.72088687588930311</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.5146983948042112</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="0">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="0">
-        <v>0</v>
+        <v>0.8760016780090546</v>
       </c>
       <c r="AK47" s="0">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>0</v>
+        <v>0.6946171128226738</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9736,16 +9736,16 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.74589101080376663</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.85693900175396465</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="0">
-        <v>0</v>
+        <v>0.90567464974268597</v>
       </c>
       <c r="L48" s="0">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.59168156296855234</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0</v>
+        <v>0.53174199140923273</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="BE48" s="0">
-        <v>0</v>
+        <v>0.80865460670229727</v>
       </c>
       <c r="BF48" s="0">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="0">
-        <v>0</v>
+        <v>0.64013198463480692</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
@@ -10157,16 +10157,16 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.93125028431753676</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="0">
-        <v>0</v>
+        <v>0.85084054636879869</v>
       </c>
       <c r="G50" s="0">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="AI50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ50" s="0">
         <v>0</v>
@@ -10336,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="AM50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0</v>
+        <v>0.81139128323307874</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.71871113343848658</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.69701790450589707</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="BP50" s="0">
-        <v>0</v>
+        <v>0.65776663576892336</v>
       </c>
     </row>
     <row r="51">
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="0">
-        <v>0</v>
+        <v>0.86617455020973932</v>
       </c>
       <c r="F51" s="0">
         <v>0</v>
@@ -10551,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="AP51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ51" s="0">
         <v>0</v>
@@ -10572,25 +10572,25 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.85662247605479436</v>
       </c>
       <c r="BA51" s="0">
-        <v>0</v>
+        <v>0.65088029953099391</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
       </c>
       <c r="BC51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD51" s="0">
         <v>0</v>
@@ -10620,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="BM51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN51" s="0">
         <v>0</v>
@@ -10721,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="AD52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="0">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="0">
-        <v>0</v>
+        <v>0.5396181111338425</v>
       </c>
       <c r="AK52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.64427153549730209</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.53265169562168668</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.57940423737466129</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.82975498986624707</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10924,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="0">
-        <v>0</v>
+        <v>0.64689100386437659</v>
       </c>
       <c r="AD53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0</v>
+        <v>0.8733547613313567</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.58201369263758862</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.72741122173418737</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="0">
         <v>0</v>
@@ -11103,7 +11103,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" s="0">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="0">
-        <v>0</v>
+        <v>0.60961234576172685</v>
       </c>
       <c r="AT54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.72552864465626787</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.9749300549719413</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.69918009734045961</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN55" s="0">
         <v>0</v>
@@ -11402,25 +11402,25 @@
         <v>0</v>
       </c>
       <c r="AY55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="0">
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.51528302619235977</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11444,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="BM55" s="0">
-        <v>0</v>
+        <v>0.98341177896676957</v>
       </c>
       <c r="BN55" s="0">
         <v>0</v>
@@ -11479,7 +11479,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="0">
         <v>0</v>
@@ -11566,7 +11566,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL56" s="0">
         <v>0</v>
@@ -11590,7 +11590,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.67623439217446646</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.90991862578808402</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.86331496292178023</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.86882912645722499</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="0">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="AV57" s="0">
-        <v>0</v>
+        <v>0.85051296054255188</v>
       </c>
       <c r="AW57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.68812141361992452</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0</v>
+        <v>0.9337436164816959</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.63058856392415286</v>
       </c>
       <c r="BE58" s="0">
-        <v>0</v>
+        <v>0.98034333026071607</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.56688254886412948</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.51777414463414817</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.61768781133396833</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.53187166742425662</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.93413405636628433</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.5786135803367991</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.725160372851271</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.65579848261830631</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.88006882635173689</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12488,7 +12488,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" s="0">
         <v>0</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="0">
-        <v>0</v>
+        <v>0.63365356920385629</v>
       </c>
       <c r="AF61" s="0">
         <v>0</v>
@@ -12662,25 +12662,25 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.92379568410211188</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.68425254397831914</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.79399185284975438</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
       </c>
       <c r="BM61" s="0">
-        <v>0</v>
+        <v>0.69286872151588086</v>
       </c>
       <c r="BN61" s="0">
         <v>0</v>
@@ -12748,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="S62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" s="0">
         <v>0</v>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="0">
-        <v>0</v>
+        <v>0.654573156719225</v>
       </c>
       <c r="AC62" s="0">
         <v>0</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="AO62" s="0">
-        <v>0</v>
+        <v>0.82458088913237781</v>
       </c>
       <c r="AP62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.77580513999285317</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.75240294847029321</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.61673711152228872</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.60551593068601273</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.73264555299803336</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.85601819544086244</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13208,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="AI64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.63516751812343286</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0</v>
+        <v>0.99082206927518524</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.69714906126543319</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13462,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="AY65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="0">
         <v>0</v>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="BC65" s="0">
-        <v>0</v>
+        <v>0.90459968609002761</v>
       </c>
       <c r="BD65" s="0">
         <v>0</v>
@@ -13492,22 +13492,22 @@
         <v>0</v>
       </c>
       <c r="BI65" s="0">
-        <v>0</v>
+        <v>0.68955478358061384</v>
       </c>
       <c r="BJ65" s="0">
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.73964807212338923</v>
       </c>
       <c r="BL65" s="0">
-        <v>0</v>
+        <v>0.56005437824928617</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.71191787066782564</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="0">
         <v>0</v>
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="0">
-        <v>0</v>
+        <v>0.6165146896819671</v>
       </c>
       <c r="AD66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.53293130112379306</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.94811100423946704</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.51972046155474549</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.54509058745239214</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.92846320351391554</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13739,16 +13739,16 @@
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
       </c>
       <c r="H67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="0">
         <v>0</v>
@@ -13919,21 +13919,21 @@
         <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.66325877734840777</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.62597481868119464</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.96594238092680706</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14044,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="AM68" s="0">
-        <v>0</v>
+        <v>0.95092576587190747</v>
       </c>
       <c r="AN68" s="0">
         <v>0</v>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="0">
-        <v>0</v>
+        <v>0.51648473272991302</v>
       </c>
       <c r="AR68" s="0">
         <v>0</v>
@@ -14077,7 +14077,7 @@
         <v>0</v>
       </c>
       <c r="AX68" s="0">
-        <v>0</v>
+        <v>0.88135706118260104</v>
       </c>
       <c r="AY68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.81587847531488455</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.79698805270559037</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject4.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject4.xlsx
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.62183673384202121</v>
+        <v>0.76329235263777306</v>
       </c>
       <c r="C1" s="0">
-        <v>0.80909753400721818</v>
+        <v>0.8841818121120798</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -326,10 +326,10 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.64207660853420734</v>
+        <v>0.92846320351391554</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.56169584968390851</v>
+        <v>0.96594238092680706</v>
       </c>
     </row>
     <row r="2">
@@ -340,7 +340,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.67409771054186085</v>
+        <v>0.95739534546396388</v>
       </c>
       <c r="D2" s="0">
         <v>0.93294352633416699</v>
@@ -370,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="0">
-        <v>0.75067520370536889</v>
+        <v>0.82972190159711801</v>
       </c>
       <c r="N2" s="0">
         <v>0</v>
@@ -379,7 +379,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="0">
-        <v>0.51231178965893864</v>
+        <v>0.52430751820335753</v>
       </c>
       <c r="Q2" s="0">
         <v>0</v>
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.66315952976152437</v>
+        <v>0.94493407009390951</v>
       </c>
       <c r="E3" s="0">
-        <v>0.67245714461763462</v>
+        <v>0.84929483246677251</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.82931752653965507</v>
+        <v>0.93294352633416699</v>
       </c>
       <c r="C4" s="0">
         <v>0.94493407009390951</v>
@@ -961,7 +961,7 @@
         <v>0.84929483246677251</v>
       </c>
       <c r="D5" s="0">
-        <v>0.78756538399080944</v>
+        <v>0.85863121310145607</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="AY5" s="0">
-        <v>0.84336088586581082</v>
+        <v>0.86617455020973932</v>
       </c>
       <c r="AZ5" s="0">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.79723455415511957</v>
+        <v>0.97985703602802698</v>
       </c>
       <c r="E6" s="0">
-        <v>0.52137276522719134</v>
+        <v>0.89323393204577939</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.7099560414209658</v>
+        <v>0.7768515609129365</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="0">
-        <v>0.58650834745781211</v>
+        <v>0.85084054636879869</v>
       </c>
       <c r="AY6" s="0">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.5445614476903784</v>
+        <v>0.64154393302573443</v>
       </c>
       <c r="I7" s="0">
-        <v>0.7105998565813133</v>
+        <v>0.95868352517013478</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.54506060708143111</v>
+        <v>0.80773496365022401</v>
       </c>
       <c r="J8" s="0">
-        <v>0.60327085617806131</v>
+        <v>0.64155835827222707</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.60150796147718333</v>
+        <v>0.82744893414250364</v>
       </c>
       <c r="K9" s="0">
         <v>0.9765218950849881</v>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.54619084102211946</v>
+        <v>0.59413475611487521</v>
       </c>
       <c r="L10" s="0">
         <v>0.53756482940775441</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="0">
-        <v>0.72022769199667036</v>
+        <v>0.94196035399956424</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.63410178537894835</v>
+        <v>0.9765218950849881</v>
       </c>
       <c r="J11" s="0">
         <v>0.59413475611487521</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="AV11" s="0">
-        <v>0.7959399804055125</v>
+        <v>0.90567464974268597</v>
       </c>
       <c r="AW11" s="0">
         <v>0</v>
@@ -2421,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.52185732248013039</v>
+        <v>0.53756482940775441</v>
       </c>
       <c r="K12" s="0">
-        <v>0.71985421489377754</v>
+        <v>0.91217199882082123</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.80117262843150772</v>
+        <v>0.8256361917940036</v>
       </c>
       <c r="L13" s="0">
-        <v>0.77102456068884107</v>
+        <v>0.97895677646059931</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0.67630230999906815</v>
+        <v>0.74941848019956558</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.5343620437633666</v>
+        <v>0.76189824052786992</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="0">
-        <v>0.58672866590695283</v>
+        <v>0.66569101259080643</v>
       </c>
       <c r="AF14" s="0">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0.74941848019956558</v>
       </c>
       <c r="N15" s="0">
-        <v>0.52688428837491652</v>
+        <v>0.59004007128098501</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.55880043450933936</v>
+        <v>0.6722929629587362</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.52692096037543934</v>
+        <v>0.78822577747232614</v>
       </c>
       <c r="R16" s="0">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.52561362233372111</v>
+        <v>0.81014838557996915</v>
       </c>
       <c r="S17" s="0">
         <v>0.67995909487666206</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.54859548021468962</v>
+        <v>0.66444500801071138</v>
       </c>
       <c r="T18" s="0">
-        <v>0.54462416584512141</v>
+        <v>0.76052017887150569</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0.5643024007356241</v>
+        <v>0.67995909487666206</v>
       </c>
       <c r="R19" s="0">
         <v>0.66444500801071138</v>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="0">
-        <v>0.55052166270164449</v>
+        <v>0.56376741449053669</v>
       </c>
       <c r="AC19" s="0">
         <v>0</v>
@@ -4096,13 +4096,13 @@
         <v>0.76052017887150569</v>
       </c>
       <c r="S20" s="0">
-        <v>0.63382083846338633</v>
+        <v>0.76723183398878469</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.62068629902883254</v>
+        <v>0.69316603606553462</v>
       </c>
       <c r="V20" s="0">
         <v>0.75723572278312323</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.8115579041336809</v>
+        <v>0.95360801465817691</v>
       </c>
       <c r="AE21" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.69035887779663385</v>
+        <v>0.75723572278312323</v>
       </c>
       <c r="U22" s="0">
-        <v>0.75845893087862604</v>
+        <v>0.81170673906379076</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0.88130917683759469</v>
       </c>
       <c r="X22" s="0">
-        <v>0.67272977474980478</v>
+        <v>0.92313827115283753</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4723,16 +4723,16 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0.65689915657940667</v>
+        <v>0.88130917683759469</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.70335192468517171</v>
+        <v>0.96321852834708421</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.90125849614189213</v>
+        <v>0.91024000674990335</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0.76269335462332666</v>
+        <v>0.94150737090626735</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="AT24" s="0">
-        <v>0.67579899594635306</v>
+        <v>0.8339947394556354</v>
       </c>
       <c r="AU24" s="0">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="0">
-        <v>0.51400757988214374</v>
+        <v>0.64459168828583624</v>
       </c>
       <c r="I25" s="0">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="0">
-        <v>0.52367992434847754</v>
+        <v>0.6319497866327386</v>
       </c>
       <c r="F26" s="0">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.93944504200217427</v>
+        <v>0.98963834513767224</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5365,10 +5365,10 @@
         <v>0</v>
       </c>
       <c r="AD26" s="0">
-        <v>0.85330142913978946</v>
+        <v>0.95685793425911003</v>
       </c>
       <c r="AE26" s="0">
-        <v>0.60436991880269542</v>
+        <v>0.79465621197834846</v>
       </c>
       <c r="AF26" s="0">
         <v>0</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.59187337663813655</v>
+        <v>0.67675048239929203</v>
       </c>
       <c r="AC27" s="0">
         <v>0.56835634227137422</v>
@@ -5777,7 +5777,7 @@
         <v>0.85399051090348366</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.85982966408140926</v>
+        <v>0.97192544231147271</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5974,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.52007985392114309</v>
+        <v>0.56835634227137422</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.52040910691096631</v>
+        <v>0.85399051090348366</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0.87813315170379913</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.56332775859318307</v>
+        <v>0.99253572654051325</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6422,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="AM31" s="0">
-        <v>0.52733400544310483</v>
+        <v>0.80748478973177762</v>
       </c>
       <c r="AN31" s="0">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.91641174786397506</v>
+        <v>0.97736451615776976</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.80378203542209137</v>
+        <v>0.87813315170379913</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.53008841547681584</v>
+        <v>0.77382436349056549</v>
       </c>
       <c r="R33" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0.99253572654051325</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.88344840684824177</v>
+        <v>0.99635278369879487</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>0.84244304822298177</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.51344126105153787</v>
+        <v>0.9214196053876359</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.54868064640534175</v>
+        <v>0.69449811034684661</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.53770539511918158</v>
+        <v>0.84244304822298177</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7240,7 +7240,7 @@
         <v>0.74701299737812121</v>
       </c>
       <c r="AK35" s="0">
-        <v>0.58644140575728831</v>
+        <v>0.79220720887830298</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0.9214196053876359</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.59698429456453717</v>
+        <v>0.74701299737812121</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.61543911537584395</v>
+        <v>0.78929308735216552</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.65685695830646362</v>
+        <v>0.67789193930786062</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.63538608718716683</v>
+        <v>0.73542610467774838</v>
       </c>
       <c r="AK38" s="0">
         <v>0.78929308735216552</v>
@@ -8067,7 +8067,7 @@
         <v>0.67789193930786062</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.53188222426973342</v>
+        <v>0.55159239077818467</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="BP39" s="0">
-        <v>0.92981092841049051</v>
+        <v>0.95092576587190747</v>
       </c>
     </row>
     <row r="40">
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.53995165868841566</v>
+        <v>0.60326531075446055</v>
       </c>
       <c r="AM40" s="0">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.70181808532845547</v>
+        <v>0.99634779028825848</v>
       </c>
       <c r="AP40" s="0">
         <v>0.87367329491451828</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.50572179704830145</v>
+        <v>0.77543284414453728</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="BJ41" s="0">
-        <v>0.81646021996671703</v>
+        <v>0.82458088913237781</v>
       </c>
       <c r="BK41" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.66238592951156372</v>
+        <v>0.87367329491451828</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0.75731239549397578</v>
+        <v>0.80378725391597294</v>
       </c>
       <c r="AR42" s="0">
         <v>0.84219074138508865</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="BP43" s="0">
-        <v>0.50695534993780444</v>
+        <v>0.51648473272991302</v>
       </c>
     </row>
     <row r="44">
@@ -9109,10 +9109,10 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.75237787414013657</v>
+        <v>0.84219074138508865</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.62055122615637637</v>
+        <v>0.83651421373909862</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="AF45" s="0">
-        <v>0.59551292691306579</v>
+        <v>0.64102489874888224</v>
       </c>
       <c r="AG45" s="0">
         <v>0</v>
@@ -9318,16 +9318,16 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.67800017890677244</v>
+        <v>0.74257659640098383</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.61435607550818028</v>
+        <v>0.81384295396953443</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.66434362030733274</v>
+        <v>0.97493104806614383</v>
       </c>
       <c r="AU45" s="0">
         <v>0.8279457001194428</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="AC46" s="0">
-        <v>0.50581042427433254</v>
+        <v>0.51588690541061299</v>
       </c>
       <c r="AD46" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.64257933687638735</v>
+        <v>0.90895363320581102</v>
       </c>
       <c r="AS46" s="0">
         <v>0.97493104806614383</v>
@@ -9536,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.72088687588930311</v>
+        <v>0.85693900175396465</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.5146983948042112</v>
+        <v>0.59168156296855234</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="0">
-        <v>0.8760016780090546</v>
+        <v>0.92091818513214951</v>
       </c>
       <c r="AK47" s="0">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>0.6946171128226738</v>
+        <v>0.81922134837438665</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.74589101080376663</v>
+        <v>0.8279457001194428</v>
       </c>
       <c r="AT47" s="0">
         <v>0.85693900175396465</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.53174199140923273</v>
+        <v>0.81139128323307874</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -9978,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="BE48" s="0">
-        <v>0.80865460670229727</v>
+        <v>0.85051296054255188</v>
       </c>
       <c r="BF48" s="0">
         <v>0</v>
@@ -10049,7 +10049,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="0">
-        <v>0.64013198463480692</v>
+        <v>0.83402002443033374</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>0.81139128323307874</v>
       </c>
       <c r="AW50" s="0">
-        <v>0.71871113343848658</v>
+        <v>0.93125028431753676</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="BP50" s="0">
-        <v>0.65776663576892336</v>
+        <v>0.88135706118260104</v>
       </c>
     </row>
     <row r="51">
@@ -10584,7 +10584,7 @@
         <v>0.85662247605479436</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.65088029953099391</v>
+        <v>0.8733547613313567</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="0">
-        <v>0.5396181111338425</v>
+        <v>0.58396967656601118</v>
       </c>
       <c r="AK52" s="0">
         <v>0</v>
@@ -10781,16 +10781,16 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.64427153549730209</v>
+        <v>0.69701790450589707</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.53265169562168668</v>
+        <v>0.85662247605479436</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.57940423737466129</v>
+        <v>0.58201369263758862</v>
       </c>
       <c r="BB52" s="0">
         <v>0.82975498986624707</v>
@@ -10924,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="0">
-        <v>0.64689100386437659</v>
+        <v>0.73296313692616821</v>
       </c>
       <c r="AD53" s="0">
         <v>0</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.72741122173418737</v>
+        <v>0.9749300549719413</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="0">
-        <v>0.60961234576172685</v>
+        <v>0.85384687157262951</v>
       </c>
       <c r="AT54" s="0">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.72552864465626787</v>
+        <v>0.82975498986624707</v>
       </c>
       <c r="BA54" s="0">
         <v>0.9749300549719413</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.51528302619235977</v>
+        <v>0.90991862578808402</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.67623439217446646</v>
+        <v>0.69918009734045961</v>
       </c>
       <c r="BC56" s="0">
         <v>0.90991862578808402</v>
@@ -11829,13 +11829,13 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.68812141361992452</v>
+        <v>0.86331496292178023</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.9337436164816959</v>
+        <v>0.98034333026071607</v>
       </c>
       <c r="BG57" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.63058856392415286</v>
+        <v>0.86882912645722499</v>
       </c>
       <c r="BE58" s="0">
         <v>0.98034333026071607</v>
@@ -12044,10 +12044,10 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.56688254886412948</v>
+        <v>0.61768781133396833</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.51777414463414817</v>
+        <v>0.5786135803367991</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.53187166742425662</v>
+        <v>0.725160372851271</v>
       </c>
       <c r="BI59" s="0">
         <v>0.93413405636628433</v>
@@ -12462,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.65579848261830631</v>
+        <v>0.68425254397831914</v>
       </c>
       <c r="BJ60" s="0">
         <v>0.88006882635173689</v>
@@ -12578,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="AE61" s="0">
-        <v>0.63365356920385629</v>
+        <v>0.9394639674340125</v>
       </c>
       <c r="AF61" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.92379568410211188</v>
+        <v>0.93413405636628433</v>
       </c>
       <c r="BH61" s="0">
         <v>0.68425254397831914</v>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
       <c r="AB62" s="0">
-        <v>0.654573156719225</v>
+        <v>0.78724132372435851</v>
       </c>
       <c r="AC62" s="0">
         <v>0</v>
@@ -12871,10 +12871,10 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.77580513999285317</v>
+        <v>0.88006882635173689</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.75240294847029321</v>
+        <v>0.79399185284975438</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.60551593068601273</v>
+        <v>0.61673711152228872</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.63516751812343286</v>
+        <v>0.73264555299803336</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13474,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="BC65" s="0">
-        <v>0.90459968609002761</v>
+        <v>0.98341177896676957</v>
       </c>
       <c r="BD65" s="0">
         <v>0</v>
@@ -13492,22 +13492,22 @@
         <v>0</v>
       </c>
       <c r="BI65" s="0">
-        <v>0.68955478358061384</v>
+        <v>0.69286872151588086</v>
       </c>
       <c r="BJ65" s="0">
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>0.73964807212338923</v>
+        <v>0.85601819544086244</v>
       </c>
       <c r="BL65" s="0">
-        <v>0.56005437824928617</v>
+        <v>0.99082206927518524</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.71191787066782564</v>
+        <v>0.94811100423946704</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13602,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="0">
-        <v>0.6165146896819671</v>
+        <v>0.95728799342990512</v>
       </c>
       <c r="AD66" s="0">
         <v>0</v>
@@ -13707,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0.53293130112379306</v>
+        <v>0.69714906126543319</v>
       </c>
       <c r="BM66" s="0">
         <v>0.94811100423946704</v>
@@ -13716,10 +13716,10 @@
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.51972046155474549</v>
+        <v>0.66325877734840777</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.54509058745239214</v>
+        <v>0.81587847531488455</v>
       </c>
     </row>
     <row r="67">
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.62597481868119464</v>
+        <v>0.79698805270559037</v>
       </c>
     </row>
     <row r="68">
